--- a/mulesoft-sheet.xlsx
+++ b/mulesoft-sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vmivsp-my.sharepoint.com/personal/pavan_dasari_valuemomentum_com/Documents/Desktop/Learnings/PowerShell-Scripts/Powershell/MULESOFT/Input-Mulesoft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="11_09019B4C929C49301A48FE40EE4CFB57F593EDDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45C122B7-1506-4ACA-9863-23564060E30E}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="11_09019B4C929C49301A48FE40EE4CFB57F593EDDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EDAC4CD-2BC4-46BF-8FB8-93EE2A4FEA15}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,7 +499,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:S2"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -593,7 +593,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3">
-        <v>20552521</v>
+        <v>20557056</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>21</v>

--- a/mulesoft-sheet.xlsx
+++ b/mulesoft-sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vmivsp-my.sharepoint.com/personal/pavan_dasari_valuemomentum_com/Documents/Desktop/Learnings/PowerShell-Scripts/Powershell/MULESOFT/Input-Mulesoft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="11_09019B4C929C49301A48FE40EE4CFB57F593EDDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EDAC4CD-2BC4-46BF-8FB8-93EE2A4FEA15}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="11_09019B4C929C49301A48FE40EE4CFB57F593EDDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06ADECAA-045B-4AB3-99E8-8D38A14571A8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,7 +499,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -593,7 +593,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3">
-        <v>20557056</v>
+        <v>20573848</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>21</v>
